--- a/data_meta_info/용융최대 온도값_temperatrue_value_rule_2022-12-26.xlsx
+++ b/data_meta_info/용융최대 온도값_temperatrue_value_rule_2022-12-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RFM\과제 관련\00_진행 중인 연구과제  관련\2022년도 인공지능 학습용 데이터 구축 지원사업(2차)\0_tta\구문검사 기준\12월26일_4가지의 Json\구문검사 기준_1226\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c51ai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78165FA-8005-41A1-835C-0497F1D5530C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEFED77-8A32-4AC2-83C4-C89339DC1982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8505" yWindow="345" windowWidth="19440" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="샘플진단규칙" sheetId="2" r:id="rId1"/>
@@ -2281,7 +2281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2300,101 +2300,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2402,7 +2309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2703,7 +2610,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2721,69 +2628,69 @@
       <c r="A1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2791,7 +2698,7 @@
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -2805,7 +2712,7 @@
       <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
@@ -2822,7 +2729,7 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
@@ -2842,16 +2749,16 @@
       <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2859,7 +2766,7 @@
       <c r="A7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
@@ -2873,7 +2780,7 @@
       <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
@@ -2887,7 +2794,7 @@
       <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
@@ -2907,14 +2814,11 @@
       <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
       </c>
       <c r="J10" t="s">
         <v>89</v>
@@ -2924,7 +2828,7 @@
       <c r="A11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
@@ -2944,7 +2848,7 @@
       <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
@@ -2964,7 +2868,7 @@
       <c r="A13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
@@ -2981,7 +2885,7 @@
       <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
@@ -2995,7 +2899,7 @@
       <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
@@ -3009,7 +2913,7 @@
       <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -3023,7 +2927,7 @@
       <c r="A17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
@@ -3037,7 +2941,7 @@
       <c r="A18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
@@ -3051,7 +2955,7 @@
       <c r="A19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -3065,7 +2969,7 @@
       <c r="A20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
@@ -3079,7 +2983,7 @@
       <c r="A21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
@@ -3096,7 +3000,7 @@
       <c r="A22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
@@ -3116,7 +3020,7 @@
       <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
@@ -3150,34 +3054,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -3627,22 +3531,22 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:14" ht="268.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
